--- a/Proyectos/2015/12/P1411 - RNCFACMU, Cristina Torres Hernandez_MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1411 - RNCFACMU, Cristina Torres Hernandez_MO/Calidad/No_conformidades.xlsx
@@ -47,7 +47,7 @@
     <t>Marisol Ornelas</t>
   </si>
   <si>
-    <t>En proceso</t>
+    <t>Cerrada</t>
   </si>
   <si>
     <t>No existe evidencia alguna del proyecto, favor de realizar los productos y etapas de proyecto asi como recordar la encuesta de satisfacción para el cierre de proyecto </t>
@@ -295,7 +295,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -367,7 +367,9 @@
       <c r="D4" s="5" t="n">
         <v>42382</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
